--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/67_Samsun_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/67_Samsun_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E2FEA97-AF2E-45F8-B5A2-0E1FD204748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABC934C-C75D-402F-923E-7242F7600111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{0A8067CD-0CF7-4F54-8A20-5F40B11C23F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{A78C7BB0-62FB-4963-8641-FF998BDEEC67}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -826,14 +826,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{6B4A97D6-4AF2-49A7-98B2-C901678355DE}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F15561DC-E900-40DD-9303-C456359169A8}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{CF76FDE5-C3E8-4BA7-AED0-D811677689E7}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{F94AADAD-932F-45E2-B916-CAD8E53F6494}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{847F56E0-A9DA-4A56-80EB-13DE3ADE8403}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2A85553B-D2B4-458C-BB0B-5D2E1C115F16}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{00237C20-5CFB-4F9A-AD79-CF588EA03BEF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F072F9C0-B61B-44B4-AF87-440B779F78A1}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CB99BC5F-CD3D-47D4-B4A0-E4EC1BCCC215}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8A38FC04-EF3C-467D-B649-6375C417B063}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F3AFC4D6-8430-4F65-9204-6FFC4CD470DC}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{E5953C47-9844-49F6-8AED-1DBC690CDC3E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7208B6C6-89FE-4873-B3F4-CDE7FDA2201D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8F05EC21-8D0F-408D-9104-415E5B607C5B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{60937528-E721-453E-9B2D-EB6053831CD7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D1478BC6-84A3-4E2B-A59D-2AC531A296FD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7444134-9A17-4FA3-8185-27E817B661DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673FD869-E8EB-4AAC-83DD-A80046AC4F68}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2504,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEE10F7-9375-47C7-B44C-005DEB8887AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF8B1B2-C874-40F5-9B3E-AE3EB9BF391D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3811,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89B82F7-A906-4E61-997E-899C58731497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92F5A80-2E2A-4A85-892F-77382AFC84DB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5116,7 +5116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A0B7B4-F62F-44E5-AED8-6626E0E51C1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A7F42-053C-439F-A143-EA0FA8A4E935}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6421,7 +6421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684636E8-08CC-4004-9269-009C89F716F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A511C3EC-5B35-43B6-9F54-037FB8DF3693}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7724,7 +7724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF29D8EF-7C0D-4D88-9239-A0CA8E0223F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C321A8-808A-4EBE-BCB9-0AC66AA676F7}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
